--- a/server/dados_BLUE.xlsx
+++ b/server/dados_BLUE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,36 +474,6 @@
           <t>frame</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>PLAYER</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>TEAM</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>DEATHS</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>ASSISTS</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>FARM</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>CHAMPION</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,30 +496,20 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E2" t="n">
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="G2" t="n">
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>3000</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -572,30 +532,20 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E3" t="n">
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>4500</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -618,30 +568,20 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E4" t="n">
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>6000</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -664,30 +604,20 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E5" t="n">
+        <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>7500</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -710,30 +640,20 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E6" t="n">
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="G6" t="n">
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>9000</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -756,30 +676,20 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E7" t="n">
+        <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="G7" t="n">
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>10500</v>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -802,30 +712,20 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E8" t="n">
+        <v>0</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="G8" t="n">
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>12000</v>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -848,30 +748,20 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E9" t="n">
+        <v>0</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="G9" t="n">
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>13500</v>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -894,30 +784,20 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E10" t="n">
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="G10" t="n">
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>15000</v>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -940,30 +820,20 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E11" t="n">
+        <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G11" t="n">
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>16500</v>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -986,30 +856,20 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E12" t="n">
+        <v>0</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G12" t="n">
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>18000</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1032,30 +892,20 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E13" t="n">
+        <v>0</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G13" t="n">
+        <v>3</v>
       </c>
       <c r="H13" t="n">
         <v>19500</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1078,30 +928,20 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E14" t="n">
+        <v>0</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G14" t="n">
+        <v>3</v>
       </c>
       <c r="H14" t="n">
         <v>21000</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1124,30 +964,20 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E15" t="n">
+        <v>0</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="G15" t="n">
+        <v>4</v>
       </c>
       <c r="H15" t="n">
         <v>22500</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1170,30 +1000,20 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E16" t="n">
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="G16" t="n">
+        <v>4</v>
       </c>
       <c r="H16" t="n">
         <v>24000</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1216,30 +1036,20 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E17" t="n">
+        <v>0</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>No text detected</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="G17" t="n">
+        <v>4</v>
       </c>
       <c r="H17" t="n">
         <v>25500</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1262,30 +1072,20 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E18" t="n">
+        <v>0</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>No text detected</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="G18" t="n">
+        <v>4</v>
       </c>
       <c r="H18" t="n">
         <v>27000</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1308,30 +1108,20 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E19" t="n">
+        <v>0</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>No text detected</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="G19" t="n">
+        <v>4</v>
       </c>
       <c r="H19" t="n">
         <v>28500</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1354,30 +1144,20 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E20" t="n">
+        <v>0</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>No text detected</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="G20" t="n">
+        <v>4</v>
       </c>
       <c r="H20" t="n">
         <v>30000</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1400,30 +1180,20 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E21" t="n">
+        <v>0</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>No text detected</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="G21" t="n">
+        <v>8</v>
       </c>
       <c r="H21" t="n">
         <v>31500</v>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1446,30 +1216,20 @@
           <t>No text detected</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E22" t="n">
+        <v>0</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="G22" t="n">
+        <v>8</v>
       </c>
       <c r="H22" t="n">
         <v>33000</v>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1492,30 +1252,20 @@
           <t>No text detected</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E23" t="n">
+        <v>0</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>No text detected</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="G23" t="n">
+        <v>9</v>
       </c>
       <c r="H23" t="n">
         <v>34500</v>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1538,30 +1288,20 @@
           <t>J</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E24" t="n">
+        <v>0</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="G24" t="n">
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>36000</v>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1580,30 +1320,20 @@
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E25" t="n">
+        <v>0</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>No text detected</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="G25" t="n">
+        <v>11</v>
       </c>
       <c r="H25" t="n">
         <v>37500</v>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1626,30 +1356,20 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E26" t="n">
+        <v>0</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>No text detected</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="G26" t="n">
+        <v>11</v>
       </c>
       <c r="H26" t="n">
         <v>39000</v>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1672,30 +1392,20 @@
           <t>No text detected</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E27" t="n">
+        <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="G27" t="n">
+        <v>11</v>
       </c>
       <c r="H27" t="n">
         <v>40500</v>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1718,30 +1428,20 @@
           <t>J</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E28" t="n">
+        <v>0</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="G28" t="n">
+        <v>12</v>
       </c>
       <c r="H28" t="n">
         <v>42000</v>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1764,30 +1464,20 @@
           <t>J</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E29" t="n">
+        <v>0</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>No text detected</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="G29" t="n">
+        <v>12</v>
       </c>
       <c r="H29" t="n">
         <v>43500</v>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1810,30 +1500,20 @@
           <t>No text detected</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E30" t="n">
+        <v>0</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="G30" t="n">
+        <v>13</v>
       </c>
       <c r="H30" t="n">
         <v>45000</v>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1856,30 +1536,20 @@
           <t>No text detected</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E31" t="n">
+        <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="G31" t="n">
+        <v>13</v>
       </c>
       <c r="H31" t="n">
         <v>46500</v>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1898,30 +1568,20 @@
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E32" t="n">
+        <v>0</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>No text detected</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="G32" t="n">
+        <v>13</v>
       </c>
       <c r="H32" t="n">
         <v>48000</v>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1944,30 +1604,20 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E33" t="n">
+        <v>0</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="G33" t="n">
+        <v>13</v>
       </c>
       <c r="H33" t="n">
         <v>49500</v>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1990,30 +1640,20 @@
           <t>No text detected</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E34" t="n">
+        <v>0</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>No text detected</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="G34" t="n">
+        <v>13</v>
       </c>
       <c r="H34" t="n">
         <v>51000</v>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2036,30 +1676,20 @@
           <t>No text detected</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E35" t="n">
+        <v>0</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="G35" t="n">
+        <v>13</v>
       </c>
       <c r="H35" t="n">
         <v>52500</v>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2082,30 +1712,20 @@
           <t>No text detected</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E36" t="n">
+        <v>0</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="G36" t="n">
+        <v>14</v>
       </c>
       <c r="H36" t="n">
         <v>54000</v>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2128,30 +1748,20 @@
           <t>No text detected</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E37" t="n">
+        <v>0</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>No text detected</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="G37" t="n">
+        <v>15</v>
       </c>
       <c r="H37" t="n">
         <v>55500</v>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2174,30 +1784,20 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E38" t="n">
+        <v>0</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>No text detected</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="G38" t="n">
+        <v>15</v>
       </c>
       <c r="H38" t="n">
         <v>57000</v>
       </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2220,30 +1820,20 @@
           <t>No text detected</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E39" t="n">
+        <v>0</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>No text detected</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="G39" t="n">
+        <v>15</v>
       </c>
       <c r="H39" t="n">
         <v>58500</v>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2266,30 +1856,20 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E40" t="n">
+        <v>0</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>No text detected</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="G40" t="n">
+        <v>15</v>
       </c>
       <c r="H40" t="n">
         <v>60000</v>
       </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2312,30 +1892,20 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E41" t="n">
+        <v>0</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="G41" t="n">
+        <v>15</v>
       </c>
       <c r="H41" t="n">
         <v>61500</v>
       </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/server/dados_BLUE.xlsx
+++ b/server/dados_BLUE.xlsx
@@ -560,7 +560,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -735,12 +735,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>10.9</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>12.3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>15.5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,12 +915,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>18.8</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -987,12 +987,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>22.8</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1023,12 +1023,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2..2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1131,12 +1131,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>27.</t>
+          <t>27..</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>32.6</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3..2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>J82</t>
+          <t>J8.2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>J</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>J</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>R</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>51J</t>
+          <t>51.J</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>56.9</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>No text detected</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G40" t="n">

--- a/server/dados_BLUE.xlsx
+++ b/server/dados_BLUE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,10 +486,8 @@
           <t>25</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -499,10 +497,8 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2" t="n">
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -519,13 +515,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>J5</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -535,10 +529,8 @@
       <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F3" t="n">
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -558,10 +550,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -571,10 +561,8 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F4" t="n">
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -591,29 +579,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>6/</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0~</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F5" t="n">
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>7500</v>
@@ -627,13 +611,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -643,13 +625,11 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F6" t="n">
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>9000</v>
@@ -663,13 +643,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -679,13 +657,11 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F7" t="n">
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>10500</v>
@@ -699,13 +675,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>10.3</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -715,13 +689,11 @@
       <c r="E8" t="n">
         <v>0</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F8" t="n">
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>12000</v>
@@ -735,13 +707,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10.9</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>11.8</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -751,13 +721,11 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F9" t="n">
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>13500</v>
@@ -771,13 +739,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12.3</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>13..</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -787,13 +753,11 @@
       <c r="E10" t="n">
         <v>0</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F10" t="n">
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
         <v>15000</v>
@@ -807,13 +771,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1A.3</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>1a.5</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -823,13 +785,11 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F11" t="n">
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>16500</v>
@@ -843,13 +803,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>15.5</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>16 3</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -859,13 +817,11 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F12" t="n">
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
         <v>18000</v>
@@ -879,13 +835,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>17.7</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>180*</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -895,13 +849,11 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F13" t="n">
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
         <v>19500</v>
@@ -915,13 +867,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>18.8</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -931,13 +881,11 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F14" t="n">
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
         <v>21000</v>
@@ -951,13 +899,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20.6</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -967,13 +913,11 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F15" t="n">
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H15" t="n">
         <v>22500</v>
@@ -987,13 +931,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>22.8</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1003,13 +945,11 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="F16" t="n">
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H16" t="n">
         <v>24000</v>
@@ -1026,10 +966,8 @@
           <t>2..2</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C17" t="n">
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1039,13 +977,11 @@
       <c r="E17" t="n">
         <v>0</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="F17" t="n">
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H17" t="n">
         <v>25500</v>
@@ -1059,13 +995,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1075,13 +1009,11 @@
       <c r="E18" t="n">
         <v>0</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="F18" t="n">
+        <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H18" t="n">
         <v>27000</v>
@@ -1095,13 +1027,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>26 1</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1111,13 +1041,11 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="F19" t="n">
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H19" t="n">
         <v>28500</v>
@@ -1131,13 +1059,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>27..</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1147,13 +1073,11 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="F20" t="n">
+        <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H20" t="n">
         <v>30000</v>
@@ -1167,13 +1091,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>J1.1</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>3JJ.3</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1183,13 +1105,11 @@
       <c r="E21" t="n">
         <v>0</v>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="F21" t="n">
+        <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
         <v>31500</v>
@@ -1203,13 +1123,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>32.6</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>J5</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1219,13 +1137,11 @@
       <c r="E22" t="n">
         <v>0</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="F22" t="n">
+        <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H22" t="n">
         <v>33000</v>
@@ -1239,13 +1155,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3..2</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>36.J</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1255,13 +1169,11 @@
       <c r="E23" t="n">
         <v>0</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="F23" t="n">
+        <v>4</v>
       </c>
       <c r="G23" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H23" t="n">
         <v>34500</v>
@@ -1275,29 +1187,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>J5</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>Ja.0</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="F24" t="n">
+        <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H24" t="n">
         <v>36000</v>
@@ -1311,25 +1219,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>37.0</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>39.*</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="F25" t="n">
+        <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H25" t="n">
         <v>37500</v>
@@ -1343,29 +1251,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>J8.2</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>41.8</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="F26" t="n">
+        <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H26" t="n">
         <v>39000</v>
@@ -1379,29 +1283,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>J9.5</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>43.2</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>J</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="F27" t="n">
+        <v>4</v>
       </c>
       <c r="G27" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H27" t="n">
         <v>40500</v>
@@ -1415,13 +1315,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>41.0</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>Mt</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1431,13 +1329,11 @@
       <c r="E28" t="n">
         <v>0</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="F28" t="n">
+        <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H28" t="n">
         <v>42000</v>
@@ -1451,13 +1347,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>42.3</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>N2.5</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1467,13 +1361,11 @@
       <c r="E29" t="n">
         <v>0</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="F29" t="n">
+        <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H29" t="n">
         <v>43500</v>
@@ -1487,13 +1379,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>M3</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>49.2</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1503,13 +1393,11 @@
       <c r="E30" t="n">
         <v>0</v>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="F30" t="n">
+        <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H30" t="n">
         <v>45000</v>
@@ -1523,13 +1411,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>A5.3</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>51..</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1539,13 +1425,11 @@
       <c r="E31" t="n">
         <v>0</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
+      <c r="F31" t="n">
+        <v>4</v>
       </c>
       <c r="G31" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="H31" t="n">
         <v>46500</v>
@@ -1559,25 +1443,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>6.4k</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>5..5</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>5</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
+      <c r="F32" t="n">
+        <v>4</v>
       </c>
       <c r="G32" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="H32" t="n">
         <v>48000</v>
@@ -1591,29 +1475,25 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>56.6</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>5</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>J</t>
         </is>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="F33" t="n">
+        <v>4</v>
       </c>
       <c r="G33" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H33" t="n">
         <v>49500</v>
@@ -1627,29 +1507,21 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>49 3</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>5</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
         <v>0</v>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="F34" t="n">
+        <v>4</v>
       </c>
       <c r="G34" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="H34" t="n">
         <v>51000</v>
@@ -1663,29 +1535,21 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>51.J</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>im</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>60.8</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>5</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
         <v>0</v>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="F35" t="n">
+        <v>4</v>
       </c>
       <c r="G35" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="H35" t="n">
         <v>52500</v>
@@ -1699,212 +1563,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>52.8</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>63.1</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>7</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
         <v>0</v>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="F36" t="n">
+        <v>4</v>
       </c>
       <c r="G36" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H36" t="n">
         <v>54000</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>15</v>
-      </c>
-      <c r="H37" t="n">
-        <v>55500</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>55.6</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>15</v>
-      </c>
-      <c r="H38" t="n">
-        <v>57000</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>56.9</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>15</v>
-      </c>
-      <c r="H39" t="n">
-        <v>58500</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>58.0</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>15</v>
-      </c>
-      <c r="H40" t="n">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>59.0*</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>15</v>
-      </c>
-      <c r="H41" t="n">
-        <v>61500</v>
       </c>
     </row>
   </sheetData>
